--- a/console/Networking/iaas网络与容器中文提取/sshExcel/list.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/sshExcel/list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -797,18 +792,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Format</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Cancel</t>
     </r>
   </si>
@@ -833,54 +816,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The name cannot be null</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The name length cannot exceed 32 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name only supports numbers, upper case and lower case letters, English underline “_” and line-through</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The public key cannot be null</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Download'</t>
     </r>
   </si>
@@ -893,42 +828,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Click **Download** to obtain the private key. Such download link will be kept for 10 minutes.'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Download private key of</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SSH Key Pair?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Connection Time-out'</t>
     </r>
   </si>
@@ -943,21 +842,53 @@
       </rPr>
       <t>'Notification'</t>
     </r>
-  </si>
-  <si>
-    <t>It shall not be null, and only supports numbers, upper case and lower case letters, English underline “_” and line-through “-”, with at most 32 characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Create new Key Pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use existing public keys</t>
+    <t>Import existing Key Pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Obtaining list data succeeded</t>
+    <t>The name can't exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain list data successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The public key is required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click **Download** to obtain the private key. This link is valid for 10 minutes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download the private key of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Pair?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name can't be blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports for numbers, capital and lowercase letters, English underline "_" and hyphen "-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name can't be blank and only supports for numbers, capital and lowercase letters, English underline "_" and hyphen "-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -975,6 +906,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1001,12 +940,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1348,18 +1294,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +1383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,7 +1394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1455,10 +1402,12 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1418,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1477,10 +1426,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1488,10 +1437,11 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1502,7 +1452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1510,10 +1460,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1521,10 +1471,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1532,10 +1482,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1543,10 +1493,11 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1554,10 +1505,11 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1565,21 +1517,22 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1587,10 +1540,11 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1598,21 +1552,22 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1620,10 +1575,11 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1631,10 +1587,11 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1642,10 +1599,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1653,12 +1610,13 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B27" numberStoredAsText="1"/>
   </ignoredErrors>
